--- a/codegen/__out__/pc/public/import_template/esw/order.xlsx
+++ b/codegen/__out__/pc/public/import_template/esw/order.xlsx
@@ -30,19 +30,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsOrder;%&gt;&lt;%=comment.status_lbl%&gt;&lt;%selectList.status = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_status")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.status &amp;&amp; selectList.status.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.status.join(",") }"` })%&gt;</t>
+    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsOrder;%&gt;&lt;%=comment.status_lbl%&gt;&lt;%selectList.status = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_status")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.status &amp;&amp; selectList.status.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.status.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=comment.card_id_lbl%&gt;&lt;%selectList.card_id = data.findAllCard?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.card_id &amp;&amp; selectList.card_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.card_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=comment.price%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.card_id_lbl%&gt;&lt;%selectList.card_id = data.findAllCard?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.card_id &amp;&amp; selectList.card_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.card_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.type_lbl%&gt;&lt;%selectList.type = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_type")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.type &amp;&amp; selectList.type.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.type.join(",") }"` })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.type_lbl%&gt;&lt;%selectList.type = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_type")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.type &amp;&amp; selectList.type.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.type.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.rem%&gt;</t>

--- a/codegen/__out__/pc/public/import_template/esw/order.xlsx
+++ b/codegen/__out__/pc/public/import_template/esw/order.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.card_id_lbl%&gt;&lt;%selectList.card_id = data.findAllCard?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.card_id &amp;&amp; selectList.card_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.card_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.card_id_lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.price%&gt;</t>

--- a/codegen/__out__/pc/public/import_template/esw/order.xlsx
+++ b/codegen/__out__/pc/public/import_template/esw/order.xlsx
@@ -30,7 +30,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsOrder;%&gt;&lt;%=comment.status_lbl%&gt;&lt;%selectList.status = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_status")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.status &amp;&amp; selectList.status.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.status.join(",") }"`, allowBlank: '0' })%&gt;</t>
+    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsOrder;%&gt;&lt;%=comment.company%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=comment.status_lbl%&gt;&lt;%selectList.status = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_status")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.status &amp;&amp; selectList.status.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.status.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
@@ -395,6 +398,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/codegen/__out__/pc/public/import_template/esw/order.xlsx
+++ b/codegen/__out__/pc/public/import_template/esw/order.xlsx
@@ -31,6 +31,9 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsOrder;%&gt;&lt;%=comment.company%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=comment.phone%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.status_lbl%&gt;&lt;%selectList.status = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_status")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.status &amp;&amp; selectList.status.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.status.join(",") }"`, allowBlank: '0' })%&gt;</t>
@@ -401,6 +404,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
